--- a/InputData/indst/EoIEECwEC/Elasticity of Ind Eqpt E Cons wrt E Cost.xlsx
+++ b/InputData/indst/EoIEECwEC/Elasticity of Ind Eqpt E Cons wrt E Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\EoIEECwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348FD93A-4589-4DA5-9347-3D60DB034086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964C09E-EDFA-48A1-9923-F16320390D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61980" yWindow="3210" windowWidth="21600" windowHeight="12525" xr2:uid="{05F795DA-2DEA-4188-AD09-B14B246EEF5D}"/>
+    <workbookView xWindow="30510" yWindow="1710" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{05F795DA-2DEA-4188-AD09-B14B246EEF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>EoIEECwEC Elasticity of Industrial Equipment Energy Consumption with respect to Energy Cost</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F6B216-0153-49F1-A327-FA35702ED267}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -830,9 +836,11 @@
   <sheetPr>
     <tabColor theme="3" tint="9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -937,6 +945,24 @@
         <v>-0.18</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B13" si="0">B3</f>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
